--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\BaseGame\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ETCardGame\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DE97C-11AF-467E-9A1F-68B154180318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8DC0CD-543A-42BD-A12A-CEFEB090A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67586B1C-5206-43E6-94D8-20486A9E5AD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{67586B1C-5206-43E6-94D8-20486A9E5AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="CardConfig" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>"Big","Small"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,19 +542,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E243740-BFFB-4852-99CB-FE427F151FEB}">
-  <dimension ref="C3:H16"/>
+  <dimension ref="C2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
